--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.0.xlsx
@@ -43,42 +43,42 @@
     <t>שלום,</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נו מה מה קורה עם יואב, </t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>משחררים אותו היום?</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>שנייה אני אגיד לך הכל. אל תדאגי.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>כי בעלי בדרך אא אמרתי לו שתכף נראה לי שישחררו אותנו. בא לאסוף אותנו לא יודעת מה קורה.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>מתי אא התחיל אא להקיא ולהרגיש את כל ה...</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נו מה מה קורה עם יואב, </t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>משחררים אותו היום?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>שנייה אני אגיד לך הכל. אל תדאגי.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>כי בעלי בדרך אא אמרתי לו שתכף נראה לי שישחררו אותנו. בא לאסוף אותנו לא יודעת מה קורה.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>מתי אא התחיל אא להקיא ולהרגיש את כל ה...</t>
-  </si>
-  <si>
     <t>לפני אא כבר אתמול.</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>מה מה את מדברת? את חוקרת אותי כאילו אני מזניחה את הילד שלי?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>לא לא. מה פתאום?!</t>
   </si>
   <si>
@@ -149,9 +152,6 @@
   </si>
   <si>
     <t>למה? למה את שואלת כזאת שאלה? מה קרה? קרה משהו?</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>לא לא. המצב שלו יציב, המצב שלו יציב. לא לפחד.</t>
@@ -888,21 +888,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -924,27 +924,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -969,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -983,13 +983,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -997,10 +997,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1017,7 +1017,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1028,7 +1028,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1039,10 +1039,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1056,10 +1056,10 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1095,13 +1095,13 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1112,10 +1112,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1126,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1137,13 +1137,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1154,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1162,21 +1162,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -1199,18 +1199,18 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1238,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1263,13 +1263,13 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1280,7 +1280,7 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1291,13 +1291,13 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1308,7 +1308,7 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1319,13 +1319,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1333,7 +1333,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1350,10 +1350,10 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1378,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1392,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1403,7 +1403,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1420,10 +1420,10 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1448,10 +1448,10 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1459,13 +1459,13 @@
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1479,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1490,10 +1490,10 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1515,7 +1515,7 @@
         <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1546,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1560,10 +1560,10 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1574,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1591,7 +1591,7 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1619,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1641,13 +1641,13 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1658,7 +1658,7 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1686,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1703,7 +1703,7 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1711,13 +1711,13 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1739,13 +1739,13 @@
         <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1756,10 +1756,10 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1770,10 +1770,10 @@
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1784,7 +1784,7 @@
         <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1795,13 +1795,13 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1812,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1823,10 +1823,10 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1840,10 +1840,10 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1854,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1865,13 +1865,13 @@
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1882,7 +1882,7 @@
         <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1893,13 +1893,13 @@
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1938,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1949,10 +1949,10 @@
         <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1966,10 +1966,10 @@
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1977,10 +1977,10 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -1994,10 +1994,10 @@
         <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2008,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -2019,13 +2019,13 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2050,7 +2050,7 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2061,13 +2061,13 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2078,10 +2078,10 @@
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2106,10 +2106,10 @@
         <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2120,10 +2120,10 @@
         <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2131,10 +2131,10 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2148,10 +2148,10 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2165,7 +2165,7 @@
         <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2179,7 +2179,7 @@
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2215,13 +2215,13 @@
         <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2243,13 +2243,13 @@
         <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2274,10 +2274,10 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2288,7 +2288,7 @@
         <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2299,13 +2299,13 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2316,10 +2316,10 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2327,10 +2327,10 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2341,10 +2341,10 @@
         <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2358,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2369,10 +2369,10 @@
         <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2389,7 +2389,7 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2400,10 +2400,10 @@
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2411,10 +2411,10 @@
         <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2428,10 +2428,10 @@
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2442,10 +2442,10 @@
         <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2453,7 +2453,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -2470,10 +2470,10 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2481,10 +2481,10 @@
         <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2495,13 +2495,13 @@
         <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2512,10 +2512,10 @@
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2529,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2540,10 +2540,10 @@
         <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2554,10 +2554,10 @@
         <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2568,10 +2568,10 @@
         <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2582,10 +2582,10 @@
         <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2596,7 +2596,7 @@
         <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -2613,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2621,7 +2621,7 @@
         <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2649,7 +2649,7 @@
         <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2663,13 +2663,13 @@
         <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2683,7 +2683,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2694,7 +2694,7 @@
         <v>54</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -2711,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2722,10 +2722,10 @@
         <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2750,10 +2750,10 @@
         <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>162</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2778,10 +2778,10 @@
         <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2806,7 +2806,7 @@
         <v>166</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
